--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +540,40 @@
         <v>0.40623</v>
       </c>
       <c r="I2">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J2">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.048574</v>
+        <v>0.1389376666666667</v>
       </c>
       <c r="N2">
-        <v>0.145722</v>
+        <v>0.416813</v>
       </c>
       <c r="O2">
-        <v>0.005173961045635648</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="P2">
-        <v>0.005173961045635648</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="Q2">
-        <v>0.00657740534</v>
+        <v>0.01881354944333333</v>
       </c>
       <c r="R2">
-        <v>0.05919664806</v>
+        <v>0.16932194499</v>
       </c>
       <c r="S2">
-        <v>0.0005508499720144453</v>
+        <v>0.000674963112346124</v>
       </c>
       <c r="T2">
-        <v>0.0005508499720144452</v>
+        <v>0.000674963112346124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +602,10 @@
         <v>0.40623</v>
       </c>
       <c r="I3">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J3">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +620,10 @@
         <v>12.660118</v>
       </c>
       <c r="O3">
-        <v>0.4495063021722917</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="P3">
-        <v>0.4495063021722917</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="Q3">
         <v>0.5714355261266667</v>
@@ -635,10 +632,10 @@
         <v>5.14291973514</v>
       </c>
       <c r="S3">
-        <v>0.04785705415791421</v>
+        <v>0.02050107037916089</v>
       </c>
       <c r="T3">
-        <v>0.04785705415791422</v>
+        <v>0.02050107037916088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,45 +664,45 @@
         <v>0.40623</v>
       </c>
       <c r="I4">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J4">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01908533333333333</v>
+        <v>3.708210666666667</v>
       </c>
       <c r="N4">
-        <v>0.05725599999999999</v>
+        <v>11.124632</v>
       </c>
       <c r="O4">
-        <v>0.002032914135332446</v>
+        <v>0.4596658488544727</v>
       </c>
       <c r="P4">
-        <v>0.002032914135332446</v>
+        <v>0.4596658488544728</v>
       </c>
       <c r="Q4">
-        <v>0.002584344986666666</v>
+        <v>0.5021288063733333</v>
       </c>
       <c r="R4">
-        <v>0.02325910488</v>
+        <v>4.51915925736</v>
       </c>
       <c r="S4">
-        <v>0.0002164358573012934</v>
+        <v>0.01801459224742339</v>
       </c>
       <c r="T4">
-        <v>0.0002164358573012934</v>
+        <v>0.01801459224742339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.13541</v>
+        <v>3.319753</v>
       </c>
       <c r="H5">
-        <v>0.40623</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I5">
-        <v>0.1064658135528677</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J5">
-        <v>0.1064658135528677</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.100466333333333</v>
+        <v>0.1389376666666667</v>
       </c>
       <c r="N5">
-        <v>15.301399</v>
+        <v>0.416813</v>
       </c>
       <c r="O5">
-        <v>0.5432868226467401</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="P5">
-        <v>0.5432868226467401</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="Q5">
-        <v>0.6906541461966667</v>
+        <v>0.4612387357296666</v>
       </c>
       <c r="R5">
-        <v>6.215887315770001</v>
+        <v>4.151148621567</v>
       </c>
       <c r="S5">
-        <v>0.05784147356563773</v>
+        <v>0.01654760222361999</v>
       </c>
       <c r="T5">
-        <v>0.05784147356563774</v>
+        <v>0.01654760222361999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.136453666666667</v>
+        <v>3.319753</v>
       </c>
       <c r="H6">
-        <v>3.409361</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I6">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J6">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.048574</v>
+        <v>4.220039333333333</v>
       </c>
       <c r="N6">
-        <v>0.145722</v>
+        <v>12.660118</v>
       </c>
       <c r="O6">
-        <v>0.005173961045635648</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="P6">
-        <v>0.005173961045635648</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="Q6">
-        <v>0.05520210040466667</v>
+        <v>14.00948823695133</v>
       </c>
       <c r="R6">
-        <v>0.496818903642</v>
+        <v>126.085394132562</v>
       </c>
       <c r="S6">
-        <v>0.004623111073621203</v>
+        <v>0.5026105154304001</v>
       </c>
       <c r="T6">
-        <v>0.004623111073621202</v>
+        <v>0.5026105154304001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.136453666666667</v>
+        <v>3.319753</v>
       </c>
       <c r="H7">
-        <v>3.409361</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I7">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J7">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.220039333333333</v>
+        <v>3.708210666666667</v>
       </c>
       <c r="N7">
-        <v>12.660118</v>
+        <v>11.124632</v>
       </c>
       <c r="O7">
-        <v>0.4495063021722917</v>
+        <v>0.4596658488544727</v>
       </c>
       <c r="P7">
-        <v>0.4495063021722917</v>
+        <v>0.4596658488544728</v>
       </c>
       <c r="Q7">
-        <v>4.795879173844222</v>
+        <v>12.31034348529867</v>
       </c>
       <c r="R7">
-        <v>43.162912564598</v>
+        <v>110.793091367688</v>
       </c>
       <c r="S7">
-        <v>0.4016492480143775</v>
+        <v>0.4416512566070493</v>
       </c>
       <c r="T7">
-        <v>0.4016492480143775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.136453666666667</v>
-      </c>
-      <c r="H8">
-        <v>3.409361</v>
-      </c>
-      <c r="I8">
-        <v>0.8935341864471323</v>
-      </c>
-      <c r="J8">
-        <v>0.8935341864471323</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.01908533333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.05725599999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.002032914135332446</v>
-      </c>
-      <c r="P8">
-        <v>0.002032914135332446</v>
-      </c>
-      <c r="Q8">
-        <v>0.02168959704622222</v>
-      </c>
-      <c r="R8">
-        <v>0.195206373416</v>
-      </c>
-      <c r="S8">
-        <v>0.001816478278031153</v>
-      </c>
-      <c r="T8">
-        <v>0.001816478278031152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.136453666666667</v>
-      </c>
-      <c r="H9">
-        <v>3.409361</v>
-      </c>
-      <c r="I9">
-        <v>0.8935341864471323</v>
-      </c>
-      <c r="J9">
-        <v>0.8935341864471323</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.100466333333333</v>
-      </c>
-      <c r="N9">
-        <v>15.301399</v>
-      </c>
-      <c r="O9">
-        <v>0.5432868226467401</v>
-      </c>
-      <c r="P9">
-        <v>0.5432868226467401</v>
-      </c>
-      <c r="Q9">
-        <v>5.796443666226556</v>
-      </c>
-      <c r="R9">
-        <v>52.167992996039</v>
-      </c>
-      <c r="S9">
-        <v>0.4854453490811024</v>
-      </c>
-      <c r="T9">
-        <v>0.4854453490811024</v>
+        <v>0.4416512566070493</v>
       </c>
     </row>
   </sheetData>
